--- a/pom_500/Assignment_8/Pradyoth_Assignment_8.xlsx
+++ b/pom_500/Assignment_8/Pradyoth_Assignment_8.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/personal_umassd_assignments/pom_500/Assignment_8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DF4319-B101-4446-B73D-244219E55348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A6A1F-F0B0-894F-86D6-309509DDA36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{E42E9981-3D22-4249-9D7C-32D1D08B7CE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,19 +37,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="41">
   <si>
     <t>Problem - 1</t>
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Problem - 2</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Varience</t>
+  </si>
+  <si>
+    <t>S.D.</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Problem - 3</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Number of Resignations</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Fuel Economy</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Problem - 4</t>
+  </si>
+  <si>
+    <t>New England</t>
+  </si>
+  <si>
+    <t>Mid-Atlantic</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>Great Plains</t>
+  </si>
+  <si>
+    <t>South Atlantic</t>
+  </si>
+  <si>
+    <t>Deep South</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>p value</t>
+  </si>
+  <si>
+    <t>P value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,8 +177,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,8 +219,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -94,24 +255,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,45 +674,1973 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3749C5AD-BC3C-F24E-8D15-E692FD7D419F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="15.1640625" style="1"/>
+    <col min="1" max="16384" width="15.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <f>SQRT((23-1)*3.8^2/_xlfn.CHISQ.INV(0.025,23-1))</f>
         <v>5.3783353213027434</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8">
+        <v>20</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7">
         <f>SQRT((23-1)*3.8^2/_xlfn.CHISQ.INV(0.975,23-1))</f>
         <v>2.9389004170944988</v>
       </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
+        <v>-20.5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8">
+        <v>10</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1">
+        <v>70</v>
+      </c>
+      <c r="L4" s="1">
+        <v>130</v>
+      </c>
+      <c r="M4" s="1">
+        <v>150</v>
+      </c>
+      <c r="N4" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="8">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1">
+        <v>100</v>
+      </c>
+      <c r="N5" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="8">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1">
+        <v>150</v>
+      </c>
+      <c r="M6" s="1">
+        <v>250</v>
+      </c>
+      <c r="N6" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
+        <v>-18.7</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <v>15.3</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8">
+        <f>(10-H8)^2/H8 + (22-H8)^2/H8 + (19-H8)^2/H8 + (9-H8)^2/H8</f>
+        <v>8.4</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="8">
+        <f xml:space="preserve"> 1-_xlfn.CHISQ.DIST(H9,3,TRUE)</f>
+        <v>3.8429318857888473E-2</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2">
+        <v>70</v>
+      </c>
+      <c r="L10" s="2">
+        <v>130</v>
+      </c>
+      <c r="M10" s="2">
+        <v>150</v>
+      </c>
+      <c r="N10" s="2">
+        <v>350</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="23">
+        <f>_xlfn.CHISQ.DIST.RT(N29,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8">
+        <f>AVERAGE(E2:E9)</f>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2">
+        <v>30</v>
+      </c>
+      <c r="L11" s="2">
+        <v>20</v>
+      </c>
+      <c r="M11" s="2">
+        <v>100</v>
+      </c>
+      <c r="N11" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8">
+        <f>_xlfn.VAR.S(E2:E9)</f>
+        <v>253.37142857142857</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="2">
+        <v>100</v>
+      </c>
+      <c r="L12" s="2">
+        <v>150</v>
+      </c>
+      <c r="M12" s="2">
+        <v>250</v>
+      </c>
+      <c r="N12" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
+        <f>STDEV(E2:E9)</f>
+        <v>15.917645195550394</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8">
+        <f xml:space="preserve"> (8 - 1) * E12 / _xlfn.CHISQ.INV(0.025, 8 - 1)</f>
+        <v>1049.5486989644269</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="11"/>
+      <c r="E15" s="8">
+        <f xml:space="preserve"> (8 - 1) * E12 / _xlfn.CHISQ.INV(0.975, 8 - 1)</f>
+        <v>110.76163800213419</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="8">
+        <f>SQRT((8-1)*E12/_xlfn.CHISQ.INV(0.025,8-1))</f>
+        <v>32.396739017444744</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="4:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="11"/>
+      <c r="E17" s="8">
+        <f>SQRT((8-1)*E12/_xlfn.CHISQ.INV(0.975,8-1))</f>
+        <v>10.524335513567314</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="2">
+        <f>(K12*N10)/N20</f>
+        <v>70</v>
+      </c>
+      <c r="L18" s="2">
+        <f>L12*N10/N12</f>
+        <v>105</v>
+      </c>
+      <c r="M18" s="2">
+        <f>M12*N10/N12</f>
+        <v>175</v>
+      </c>
+      <c r="N18" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2">
+        <f>K12*N11/N12</f>
+        <v>30</v>
+      </c>
+      <c r="L19" s="2">
+        <f>L12*N11/N12</f>
+        <v>45</v>
+      </c>
+      <c r="M19" s="2">
+        <f>M12*N11/N12</f>
+        <v>75</v>
+      </c>
+      <c r="N19" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="2">
+        <v>100</v>
+      </c>
+      <c r="L20" s="2">
+        <v>150</v>
+      </c>
+      <c r="M20" s="2">
+        <v>250</v>
+      </c>
+      <c r="N20" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="4:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="4:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="3"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="4:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="4:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" ref="K26:M27" si="0">(K10-K18)^2/K18</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="20">
+        <f t="shared" si="0"/>
+        <v>5.9523809523809526</v>
+      </c>
+      <c r="M26" s="20">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="N26" s="20">
+        <f>SUM(K26:M26)</f>
+        <v>9.5238095238095237</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="20">
+        <f t="shared" si="0"/>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="M27" s="20">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="N27" s="20">
+        <f>SUM(K27:M27)</f>
+        <v>22.222222222222221</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="20">
+        <f>SUM(L26:L27)</f>
+        <v>19.841269841269842</v>
+      </c>
+      <c r="M28" s="20">
+        <f>SUM(M26:M27)</f>
+        <v>11.904761904761905</v>
+      </c>
+      <c r="N28" s="20">
+        <f>SUM(K28:M28)</f>
+        <v>31.746031746031747</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:N1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919153D7-A86C-C24D-9F5F-12C1E28022DD}">
+  <dimension ref="A1:O41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M10" si="0">$L$11/8</f>
+        <v>28</v>
+      </c>
+      <c r="N3" s="20">
+        <f>(L3-M3)^2/M3</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N4" s="20">
+        <f t="shared" ref="N4:N10" si="1">(L4-M4)^2/M4</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N5" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N6" s="20">
+        <f t="shared" si="1"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="2">
+        <v>33</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="2">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="2">
+        <v>17</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" si="1"/>
+        <v>4.3214285714285712</v>
+      </c>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <f>SUM(L3:L10)</f>
+        <v>224</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" ref="M11:N11" si="2">SUM(M3:M10)</f>
+        <v>224</v>
+      </c>
+      <c r="N11" s="20">
+        <f t="shared" si="2"/>
+        <v>7.0714285714285712</v>
+      </c>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="2">
+        <v>13</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" ref="M15:M22" si="3">$L$23/8</f>
+        <v>12</v>
+      </c>
+      <c r="N15" s="20">
+        <f>(L15-M15)^2/M15</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" ref="O15:O22" si="4">L3+L15</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="2">
+        <v>11</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N16" s="20">
+        <f t="shared" ref="N16:N22" si="5">(L16-M16)^2/M16</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="2">
+        <v>12</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N17" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="2">
+        <v>7</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N18" s="20">
+        <f t="shared" si="5"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="2">
+        <v>8</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N19" s="20">
+        <f t="shared" si="5"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="2">
+        <v>7</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N20" s="20">
+        <f t="shared" si="5"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="2">
+        <v>15</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N21" s="20">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="2">
+        <v>23</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N22" s="20">
+        <f t="shared" si="5"/>
+        <v>10.083333333333334</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2">
+        <f>SUM(L15:L22)</f>
+        <v>96</v>
+      </c>
+      <c r="M23" s="2">
+        <f>SUM(M15:M22)</f>
+        <v>96</v>
+      </c>
+      <c r="N23" s="2">
+        <f>SUM(N15:N22)</f>
+        <v>16.5</v>
+      </c>
+      <c r="O23" s="2">
+        <f>SUM(O15:O22)</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="21">
+        <f>_xlfn.CHISQ.DIST.RT((N11+N23),7)</f>
+        <v>1.3546956656406365E-3</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>